--- a/cotizacion-lista.xlsx
+++ b/cotizacion-lista.xlsx
@@ -1412,7 +1412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:AB44"/>
+  <dimension ref="A4:AC45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:E13"/>
@@ -1451,10 +1451,10 @@
           <t>RUC :  20378890161</t>
         </is>
       </c>
-      <c r="AB7" s="90" t="n"/>
+      <c r="AC7" s="90" t="n"/>
     </row>
     <row r="8">
-      <c r="AB8" s="90" t="n"/>
+      <c r="AC8" s="90" t="n"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="B9" s="71" t="inlineStr">
@@ -1474,7 +1474,7 @@
       <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="18" t="n"/>
-      <c r="AB9" s="90" t="n"/>
+      <c r="AC9" s="90" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="78" t="n"/>
@@ -1703,12 +1703,12 @@
       </c>
       <c r="C26" s="90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BO-ACCCEL7176</t>
         </is>
       </c>
       <c r="D26" s="96" t="inlineStr">
         <is>
-          <t>celular</t>
+          <t>MANDO BLUETOOTH 5.0 ANDROID IOS WIN IPEGA PG-9023S MEJORADO SIN LAG!</t>
         </is>
       </c>
       <c r="E26" s="90" t="n"/>
@@ -1716,20 +1716,20 @@
       <c r="G26" s="90" t="n"/>
       <c r="H26" s="90" t="inlineStr">
         <is>
-          <t> </t>
+          <t>generico</t>
         </is>
       </c>
       <c r="I26" s="90" t="n">
         <v>1</v>
       </c>
       <c r="J26" s="90" t="n">
-        <v>27.97</v>
+        <v>84.75</v>
       </c>
       <c r="K26" s="90" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L26" s="90" t="n">
-        <v>27.97</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="27">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C27" s="90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BO-ACCCEL8653</t>
         </is>
       </c>
       <c r="D27" s="90" t="inlineStr">
         <is>
-          <t>celular</t>
+          <t>MANDO GAMEPAD PARA CELULAR PC SWITCH PS3 ANDROID IOSWINDOWS BT 5.0 IPEGA PG-9218</t>
         </is>
       </c>
       <c r="E27" s="90" t="n"/>
@@ -1751,95 +1751,120 @@
       <c r="G27" s="90" t="n"/>
       <c r="H27" s="90" t="inlineStr">
         <is>
-          <t> </t>
+          <t>generico</t>
         </is>
       </c>
       <c r="I27" s="90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" s="90" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="K27" s="90" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="90" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="90" t="inlineStr">
+        <is>
+          <t>BO-ACCCOM8271</t>
+        </is>
+      </c>
+      <c r="D28" s="90" t="inlineStr">
+        <is>
+          <t>MONITOR GAMER CURVO 27 TEROS TE-3177N, PANEL IPS, FHD(1920X1080)1MS HDMIVGA</t>
+        </is>
+      </c>
+      <c r="E28" s="90" t="n"/>
+      <c r="F28" s="90" t="n"/>
+      <c r="G28" s="90" t="n"/>
+      <c r="H28" s="90" t="inlineStr">
+        <is>
+          <t>generico</t>
+        </is>
+      </c>
+      <c r="I28" s="90" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="90" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="K27" s="90" t="n">
-        <v>20</v>
-      </c>
-      <c r="L27" s="90" t="n">
-        <v>16.95</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29">
-      <c r="J29" s="62" t="inlineStr">
-        <is>
-          <t>Monto sin IGV</t>
-        </is>
-      </c>
-      <c r="K29" s="63" t="n"/>
-      <c r="L29" s="97" t="n">
-        <v>44.92</v>
-      </c>
-    </row>
+      <c r="J28" s="90" t="n">
+        <v>254.24</v>
+      </c>
+      <c r="K28" s="90" t="n">
+        <v>300</v>
+      </c>
+      <c r="L28" s="90" t="n">
+        <v>254.24</v>
+      </c>
+    </row>
+    <row r="29"/>
     <row r="30">
       <c r="J30" s="62" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>Monto sin IGV</t>
         </is>
       </c>
       <c r="K30" s="63" t="n"/>
-      <c r="L30" s="98" t="n">
-        <v>8.09</v>
+      <c r="L30" s="97" t="n">
+        <v>372.89</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="1">
       <c r="J31" s="62" t="inlineStr">
         <is>
+          <t>IGV</t>
+        </is>
+      </c>
+      <c r="K31" s="63" t="n"/>
+      <c r="L31" s="98" t="n">
+        <v>67.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="J32" s="62" t="inlineStr">
+        <is>
           <t>Monto con IGV</t>
         </is>
       </c>
-      <c r="K31" s="63" t="n"/>
-      <c r="L31" s="99" t="n">
-        <v>53.01</v>
-      </c>
-    </row>
-    <row r="32"/>
-    <row r="33">
-      <c r="B33" s="44" t="inlineStr">
+      <c r="K32" s="63" t="n"/>
+      <c r="L32" s="99" t="n">
+        <v>440.01</v>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34" ht="14.4" customHeight="1">
+      <c r="B34" s="44" t="inlineStr">
         <is>
           <t>*El plazo máximo de entrega de los productos es de cinco (3) días hábiles contados a partir del día siguiente de la verificación del deposito en la cuenta de RASH PERU SAC</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="14.4" customHeight="1"/>
     <row r="35"/>
-    <row r="36">
-      <c r="B36" s="100" t="inlineStr">
+    <row r="36"/>
+    <row r="37">
+      <c r="B37" s="100" t="inlineStr">
         <is>
           <t>CUENTA CORRIENTE SOLES BCP</t>
         </is>
       </c>
-      <c r="C36" s="101" t="n"/>
-      <c r="D36" s="101" t="n"/>
-      <c r="E36" s="102" t="n"/>
-      <c r="H36" s="46" t="inlineStr">
+      <c r="C37" s="101" t="n"/>
+      <c r="D37" s="101" t="n"/>
+      <c r="E37" s="102" t="n"/>
+      <c r="H37" s="46" t="inlineStr">
         <is>
           <t>Nota: Realizar los abonos solo a las cuentas de la empresa RASH PERU S.A.C.</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="103" t="inlineStr">
-        <is>
-          <t>SOLES:    193-1115038-0-09</t>
-        </is>
-      </c>
-      <c r="C37" s="104" t="n"/>
-      <c r="D37" s="104" t="n"/>
-      <c r="E37" s="105" t="n"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="103" t="inlineStr">
         <is>
-          <t>CCI:     002-193-001115038009-12</t>
+          <t>SOLES:    193-1115038-0-09</t>
         </is>
       </c>
       <c r="C38" s="104" t="n"/>
@@ -1847,9 +1872,9 @@
       <c r="E38" s="105" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="106" t="inlineStr">
-        <is>
-          <t>CUENTA CORRIENTE SOLES BBVA</t>
+      <c r="B39" s="103" t="inlineStr">
+        <is>
+          <t>CCI:     002-193-001115038009-12</t>
         </is>
       </c>
       <c r="C39" s="104" t="n"/>
@@ -1857,98 +1882,109 @@
       <c r="E39" s="105" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="103" t="inlineStr">
-        <is>
-          <t>SOLES:   0011-0686-0100024765</t>
+      <c r="B40" s="106" t="inlineStr">
+        <is>
+          <t>CUENTA CORRIENTE SOLES BBVA</t>
         </is>
       </c>
       <c r="C40" s="104" t="n"/>
       <c r="D40" s="104" t="n"/>
       <c r="E40" s="105" t="n"/>
-      <c r="I40" s="40" t="n"/>
-      <c r="J40" s="41" t="n"/>
-      <c r="K40" s="42" t="n"/>
-      <c r="L40" s="42" t="n"/>
-      <c r="P40" s="38" t="n"/>
-      <c r="Q40" s="38" t="n"/>
-      <c r="R40" s="64" t="n"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="B41" s="103" t="inlineStr">
         <is>
-          <t>CCI:    011-686-000100024765-38</t>
+          <t>SOLES:   0011-0686-0100024765</t>
         </is>
       </c>
       <c r="C41" s="104" t="n"/>
       <c r="D41" s="104" t="n"/>
       <c r="E41" s="105" t="n"/>
       <c r="I41" s="40" t="n"/>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-      <c r="L41" s="1" t="n"/>
+      <c r="J41" s="41" t="n"/>
+      <c r="K41" s="42" t="n"/>
+      <c r="L41" s="42" t="n"/>
+      <c r="P41" s="38" t="n"/>
+      <c r="Q41" s="38" t="n"/>
+      <c r="R41" s="64" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="106" t="inlineStr">
-        <is>
-          <t>CUENTA CORRIENTE SOLES INTERBANK</t>
+      <c r="B42" s="103" t="inlineStr">
+        <is>
+          <t>CCI:    011-686-000100024765-38</t>
         </is>
       </c>
       <c r="C42" s="104" t="n"/>
       <c r="D42" s="104" t="n"/>
       <c r="E42" s="105" t="n"/>
-      <c r="I42" s="43" t="n"/>
+      <c r="I42" s="40" t="n"/>
       <c r="J42" s="1" t="n"/>
       <c r="K42" s="1" t="n"/>
       <c r="L42" s="1" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="103" t="inlineStr">
-        <is>
-          <t>SOLES:   200-3000232023</t>
+      <c r="B43" s="106" t="inlineStr">
+        <is>
+          <t>CUENTA CORRIENTE SOLES INTERBANK</t>
         </is>
       </c>
       <c r="C43" s="104" t="n"/>
       <c r="D43" s="104" t="n"/>
       <c r="E43" s="105" t="n"/>
-      <c r="I43" s="40" t="n"/>
+      <c r="I43" s="43" t="n"/>
       <c r="J43" s="1" t="n"/>
       <c r="K43" s="1" t="n"/>
       <c r="L43" s="1" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="107" t="inlineStr">
-        <is>
-          <t>CCI:    003-200-003000232023-39</t>
-        </is>
-      </c>
-      <c r="C44" s="108" t="n"/>
-      <c r="D44" s="108" t="n"/>
-      <c r="E44" s="109" t="n"/>
+      <c r="B44" s="103" t="inlineStr">
+        <is>
+          <t>SOLES:   200-3000232023</t>
+        </is>
+      </c>
+      <c r="C44" s="104" t="n"/>
+      <c r="D44" s="104" t="n"/>
+      <c r="E44" s="105" t="n"/>
       <c r="I44" s="40" t="n"/>
       <c r="J44" s="1" t="n"/>
       <c r="K44" s="1" t="n"/>
       <c r="L44" s="1" t="n"/>
     </row>
+    <row r="45">
+      <c r="B45" s="107" t="inlineStr">
+        <is>
+          <t>CCI:    003-200-003000232023-39</t>
+        </is>
+      </c>
+      <c r="C45" s="108" t="n"/>
+      <c r="D45" s="108" t="n"/>
+      <c r="E45" s="109" t="n"/>
+      <c r="I45" s="40" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="H36:L39"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B36:E36"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B45:E45"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H37:L40"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B34:L34"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="H19:I19"/>
@@ -1956,11 +1992,11 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B33:L33"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="L11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
